--- a/Cümleler.xlsx
+++ b/Cümleler.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TITAN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TITAN\Documents\GitHub\EnglishWalet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE58FE6-2906-42D5-9014-A1E9715C8F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CC1D67-59CF-45DE-BD09-2D9199709675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="-120" windowWidth="28185" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>…. Nasıl Söylenir</t>
   </si>
@@ -172,6 +172,48 @@
   </si>
   <si>
     <t>Cümleler</t>
+  </si>
+  <si>
+    <t>It's great to see you</t>
+  </si>
+  <si>
+    <t>Seni Görmek Harika</t>
+  </si>
+  <si>
+    <t>How have you been</t>
+  </si>
+  <si>
+    <t>Görüşmeyeli Nasılsın ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take Care </t>
+  </si>
+  <si>
+    <t>Kendine İyi Bak</t>
+  </si>
+  <si>
+    <t>Pleased to meet you</t>
+  </si>
+  <si>
+    <t>Tanıştığımıza memnun oldum</t>
+  </si>
+  <si>
+    <t>Can you tell me about your sister?</t>
+  </si>
+  <si>
+    <t>Bana Kardeşini anlatırmısın ?</t>
+  </si>
+  <si>
+    <t>I Speak a little English</t>
+  </si>
+  <si>
+    <t>Ben Biraz İngilizce Konuşurum</t>
+  </si>
+  <si>
+    <t>Your English is very good</t>
+  </si>
+  <si>
+    <t>İngilizcen Çok iyi</t>
   </si>
 </sst>
 </file>
@@ -513,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,8 +766,60 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Cümleler.xlsx
+++ b/Cümleler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TITAN\Documents\GitHub\EnglishWalet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CC1D67-59CF-45DE-BD09-2D9199709675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F730843-7F10-41F1-8B5B-44383BCA67A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="-120" windowWidth="28185" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>…. Nasıl Söylenir</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>İngilizcen Çok iyi</t>
+  </si>
+  <si>
+    <t>The same for me please</t>
+  </si>
+  <si>
+    <t>Banada aynısından Lütfen</t>
   </si>
 </sst>
 </file>
@@ -555,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,6 +827,14 @@
         <v>62</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/Cümleler.xlsx
+++ b/Cümleler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TITAN\Documents\GitHub\EnglishWalet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F730843-7F10-41F1-8B5B-44383BCA67A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3255E47-D856-4038-BCA1-BB8C704ADFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>…. Nasıl Söylenir</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>Banada aynısından Lütfen</t>
+  </si>
+  <si>
+    <t>Do you work here</t>
+  </si>
+  <si>
+    <t>Burda mı Çalışıyorsunuz</t>
   </si>
 </sst>
 </file>
@@ -561,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,6 +841,14 @@
         <v>64</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/Cümleler.xlsx
+++ b/Cümleler.xlsx
@@ -1,177 +1,172 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TITAN\Documents\GitHub\EnglishWalet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3255E47-D856-4038-BCA1-BB8C704ADFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670815E2-52DD-4E85-9B3B-B365CFA4703A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="-120" windowWidth="28185" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
+    <t>Cümleler</t>
+  </si>
+  <si>
+    <t>She is Stunning</t>
+  </si>
+  <si>
+    <t>O Büyüleyici</t>
+  </si>
+  <si>
+    <t>What Do you Think</t>
+  </si>
+  <si>
+    <t>Sence Nasıl/Ne Düşünüyorsun</t>
+  </si>
+  <si>
+    <t>He's Very Good-looking</t>
+  </si>
+  <si>
+    <t>O Yakışıklı</t>
+  </si>
+  <si>
+    <t>How Wonderful</t>
+  </si>
+  <si>
+    <t>Ne Harika</t>
+  </si>
+  <si>
+    <t>I think its cool</t>
+  </si>
+  <si>
+    <t>Bence Havalı</t>
+  </si>
+  <si>
+    <t>I think its too big</t>
+  </si>
+  <si>
+    <t>Bence Fazla Büyük</t>
+  </si>
+  <si>
+    <t>am ı wrong</t>
+  </si>
+  <si>
+    <t>Haksızmıyım</t>
+  </si>
+  <si>
+    <t>can you have the menu please</t>
+  </si>
+  <si>
+    <t>Menüyü Alabilirmyiz Lütfen</t>
+  </si>
+  <si>
+    <t>So glad I have you</t>
+  </si>
+  <si>
+    <t>İyi ki Varsın</t>
+  </si>
+  <si>
+    <t>I pay him</t>
+  </si>
+  <si>
+    <t>Ben Öderim</t>
+  </si>
+  <si>
+    <t>Your Questions does not have an answer</t>
+  </si>
+  <si>
+    <t>Senin Sorunun Bir cevabı yok</t>
+  </si>
+  <si>
+    <t>ı do not have time</t>
+  </si>
+  <si>
+    <t>Zamanım Yok</t>
+  </si>
+  <si>
+    <t>I Want You</t>
+  </si>
+  <si>
+    <t>Ben Seni İstiyorum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İf you Want </t>
+  </si>
+  <si>
+    <t>Eğer İstersen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Play Whenever I want </t>
+  </si>
+  <si>
+    <t>Ne zaman istersem oynarım</t>
+  </si>
+  <si>
+    <t>know that ı love you</t>
+  </si>
+  <si>
+    <t>Seni sevdiğimi bil</t>
+  </si>
+  <si>
+    <t>ı support you</t>
+  </si>
+  <si>
+    <t>Ben Seni Desteklerim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I thought you loved me </t>
+  </si>
+  <si>
+    <t>Beni Sevdiğini Sandım</t>
+  </si>
+  <si>
+    <t>I tried every Way</t>
+  </si>
+  <si>
+    <t>Ben Her yolu denedim</t>
+  </si>
+  <si>
+    <t>You must respect your teacher</t>
+  </si>
+  <si>
+    <t>Öğretmenine saygı duymalısın</t>
+  </si>
+  <si>
+    <t>I am very Thursty</t>
+  </si>
+  <si>
+    <t>Susadım</t>
+  </si>
+  <si>
+    <t>I think so too</t>
+  </si>
+  <si>
+    <t>Bencede Öyle</t>
+  </si>
+  <si>
+    <t>I dont think so</t>
+  </si>
+  <si>
+    <t>Öyle Düşünmüyorum</t>
+  </si>
+  <si>
+    <t>how do you say …. İn English</t>
+  </si>
+  <si>
     <t>…. Nasıl Söylenir</t>
-  </si>
-  <si>
-    <t>how do you say …. İn English</t>
-  </si>
-  <si>
-    <t>Öyle Düşünmüyorum</t>
-  </si>
-  <si>
-    <t>I dont think so</t>
-  </si>
-  <si>
-    <t>Bencede Öyle</t>
-  </si>
-  <si>
-    <t>I think so too</t>
-  </si>
-  <si>
-    <t>Susadım</t>
-  </si>
-  <si>
-    <t>I am very Thursty</t>
-  </si>
-  <si>
-    <t>Öğretmenine saygı duymalısın</t>
-  </si>
-  <si>
-    <t>You must respect your teacher</t>
-  </si>
-  <si>
-    <t>Ben Her yolu denedim</t>
-  </si>
-  <si>
-    <t>I tried every Way</t>
-  </si>
-  <si>
-    <t>Beni Sevdiğini Sandım</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I thought you loved me </t>
-  </si>
-  <si>
-    <t>Ben Seni Desteklerim</t>
-  </si>
-  <si>
-    <t>ı support you</t>
-  </si>
-  <si>
-    <t>Seni sevdiğimi bil</t>
-  </si>
-  <si>
-    <t>know that ı love you</t>
-  </si>
-  <si>
-    <t>Ne zaman istersem oynarım</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I Play Whenever I want </t>
-  </si>
-  <si>
-    <t>Eğer İstersen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İf you Want </t>
-  </si>
-  <si>
-    <t>Ben Seni İstiyorum</t>
-  </si>
-  <si>
-    <t>I Want You</t>
-  </si>
-  <si>
-    <t>Zamanım Yok</t>
-  </si>
-  <si>
-    <t>ı do not have time</t>
-  </si>
-  <si>
-    <t>Senin Sorunun Bir cevabı yok</t>
-  </si>
-  <si>
-    <t>Your Questions does not have an answer</t>
-  </si>
-  <si>
-    <t>Ben Öderim</t>
-  </si>
-  <si>
-    <t>I pay him</t>
-  </si>
-  <si>
-    <t>İyi ki Varsın</t>
-  </si>
-  <si>
-    <t>So glad I have you</t>
-  </si>
-  <si>
-    <t>Menüyü Alabilirmyiz Lütfen</t>
-  </si>
-  <si>
-    <t>can you have the menu please</t>
-  </si>
-  <si>
-    <t>Haksızmıyım</t>
-  </si>
-  <si>
-    <t>am ı wrong</t>
-  </si>
-  <si>
-    <t>Bence Fazla Büyük</t>
-  </si>
-  <si>
-    <t>I think its too big</t>
-  </si>
-  <si>
-    <t>Bence Havalı</t>
-  </si>
-  <si>
-    <t>I think its cool</t>
-  </si>
-  <si>
-    <t>Ne Harika</t>
-  </si>
-  <si>
-    <t>How Wonderful</t>
-  </si>
-  <si>
-    <t>O Yakışıklı</t>
-  </si>
-  <si>
-    <t>He's Very Good-looking</t>
-  </si>
-  <si>
-    <t>Sence Nasıl/Ne Düşünüyorsun</t>
-  </si>
-  <si>
-    <t>What Do you Think</t>
-  </si>
-  <si>
-    <t>O Büyüleyici</t>
-  </si>
-  <si>
-    <t>She is Stunning</t>
-  </si>
-  <si>
-    <t>Cümleler</t>
   </si>
   <si>
     <t>It's great to see you</t>
@@ -232,30 +227,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="2" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="2" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -279,14 +256,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,7 +541,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,280 +550,276 @@
     <col min="2" max="2" width="98.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Cümleler.xlsx
+++ b/Cümleler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TITAN\Documents\GitHub\EnglishWalet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670815E2-52DD-4E85-9B3B-B365CFA4703A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA44199E-2E0E-42BC-BECB-C4923AECF97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="-120" windowWidth="28185" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Cümleler</t>
   </si>
@@ -221,6 +221,18 @@
   </si>
   <si>
     <t>Burda mı Çalışıyorsunuz</t>
+  </si>
+  <si>
+    <t>He very raises money</t>
+  </si>
+  <si>
+    <t>O çok para kazanıyor</t>
+  </si>
+  <si>
+    <t>His Mother takes care of the house</t>
+  </si>
+  <si>
+    <t>Onun Annesi evle ilgilenir</t>
   </si>
 </sst>
 </file>
@@ -538,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,6 +831,22 @@
         <v>66</v>
       </c>
     </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
